--- a/backend/result/prediction_results.xlsx
+++ b/backend/result/prediction_results.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.578986314400884e-05</v>
+        <v>2.192467006850955e-05</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.570190255684211e-06</v>
+        <v>4.043291053184629e-06</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.344354396455269e-07</v>
+        <v>2.039608777092847e-07</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.999999999999922</v>
+        <v>0.9999999999997795</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.730266727640812e-07</v>
+        <v>7.999024258713303e-07</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002857174214641837</v>
+        <v>0.003369924726760724</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3.936708890102983e-05</v>
+        <v>5.53051506371393e-05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1316487162109092</v>
+        <v>0.11758203533827</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9489299940405886</v>
+        <v>0.93433651147595</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2497596949165826</v>
+        <v>0.2510400062769595</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999999999963681</v>
+        <v>0.9999999999875223</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3.82021132344753e-05</v>
+        <v>5.322796655609009e-05</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2.378680537208547e-05</v>
+        <v>3.101255935709718e-05</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.528982356005069e-05</v>
+        <v>2.17186980951866e-05</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002844361699227833</v>
+        <v>0.003423168598532229</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005502164781262835</v>
+        <v>0.005223178155882719</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9999999999786813</v>
+        <v>0.9999999999444821</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>7.704100444297926e-07</v>
+        <v>1.215206325574599e-06</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9999999997067207</v>
+        <v>0.9999999993167659</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>7.684882138109359e-05</v>
+        <v>0.000105534668998947</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9999906118761183</v>
+        <v>0.9972709567108324</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.000000099473604e-07</v>
+        <v>1.257623354854733e-07</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2.638672188621665e-05</v>
+        <v>3.730774326025462e-05</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9956149477718502</v>
+        <v>0.9945036945984497</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0003391864167040212</v>
+        <v>0.0004704775923439335</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.185677537431025e-06</v>
+        <v>1.915697549272286e-06</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0004507316381457649</v>
+        <v>0.0004585113870242414</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0007393027143613598</v>
+        <v>0.0009331689090006777</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9999999999975995</v>
+        <v>0.9999999999933972</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9924075236159864</v>
+        <v>0.9889792959865281</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.001556389478763148</v>
+        <v>0.002005022993440741</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0007907326890953097</v>
+        <v>0.0008138518434991286</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9999999999999247</v>
+        <v>0.9999999999997434</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9999999999998144</v>
+        <v>0.9999999999994638</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>8.2590486927093e-05</v>
+        <v>9.270034665882781e-05</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1.833932129695192e-05</v>
+        <v>2.639426491143991e-05</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9999999996019885</v>
+        <v>0.9999999989730204</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>3.579936221193097e-07</v>
+        <v>5.137046481445631e-07</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9999999999997602</v>
+        <v>0.9999999999990896</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9970174051918734</v>
+        <v>0.995804080524289</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9999998896455364</v>
+        <v>0.9999997955062234</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9999999990714868</v>
+        <v>0.9999999978179727</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9999999999801097</v>
+        <v>0.9999999999596358</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.004196485785196926</v>
+        <v>0.004768996298377157</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.03417121717359588</v>
+        <v>0.02796684304713276</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.004552253486073258</v>
+        <v>0.005433378415753721</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1.018231106526654e-07</v>
+        <v>1.716790932166162e-07</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9037615410014161</v>
+        <v>0.8905052719542061</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0.999999999941167</v>
+        <v>0.9999999998502409</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>1.468464914761837e-06</v>
+        <v>2.221230250143679e-06</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>7.018500265264249e-07</v>
+        <v>1.124275512463177e-06</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0.9999999997067207</v>
+        <v>0.9999999993167659</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9999999941773343</v>
+        <v>0.9999999826170833</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>2.300575440948455e-07</v>
+        <v>3.920300540073694e-07</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.002040612899135286</v>
+        <v>0.002396378185488665</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9999954084123389</v>
+        <v>0.9999915074953986</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9999990295733689</v>
+        <v>0.9999974300688955</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9999999999999699</v>
+        <v>0.9999999999999583</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.01067074741015055</v>
+        <v>0.011046595989143</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9999999999999353</v>
+        <v>0.9999999999998176</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>3.482084379526161e-06</v>
+        <v>4.848222418686028e-06</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>0.999999034643605</v>
+        <v>0.9999982465002845</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>5.149166665914089e-06</v>
+        <v>7.548034649125876e-06</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>0.9287316428086791</v>
+        <v>0.8999452652131213</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>2.570190255684211e-06</v>
+        <v>4.043291053184629e-06</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>1.185677537431025e-06</v>
+        <v>1.915697549272286e-06</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9999999999689957</v>
+        <v>0.9999999998977644</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5476843286563745</v>
+        <v>0.4803710546515227</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9999999999925248</v>
+        <v>0.9999999999814922</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>5.940608764413998e-05</v>
+        <v>6.004648699342437e-05</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9973124028843393</v>
+        <v>0.9966840729064246</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0.9999999999991681</v>
+        <v>0.9999999999976391</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>0.9999980532257171</v>
+        <v>0.9999951518941755</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>2.570190255684211e-06</v>
+        <v>4.043291053184629e-06</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>7.704100444297926e-07</v>
+        <v>1.215206325574599e-06</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>0.9999999753836899</v>
+        <v>0.9999999213643896</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>5.149166665914089e-06</v>
+        <v>7.548034649125876e-06</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="L105" t="n">
-        <v>0.9999935262571445</v>
+        <v>0.9999882339081008</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>6.22594199652956e-06</v>
+        <v>9.668659081460765e-06</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09552268633440099</v>
+        <v>0.08894681151226726</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.000165979978007807</v>
+        <v>0.0002160313507815963</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>1.565581750890199e-06</v>
+        <v>2.483535713651404e-06</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.001927644711277925</v>
+        <v>0.002331700740584191</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9999999999999302</v>
+        <v>0.9999999999997775</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>5.149166665914089e-06</v>
+        <v>7.548034649125876e-06</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>5.149166665914089e-06</v>
+        <v>7.548034649125876e-06</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>0.9999999999972782</v>
+        <v>0.9999999999919216</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>6.225791876631292e-06</v>
+        <v>8.461084643833767e-06</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>5.149166665914089e-06</v>
+        <v>7.548034649125876e-06</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0004598525280053363</v>
+        <v>0.0005585778953978864</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>4.26514742081382e-06</v>
+        <v>5.728080566893562e-06</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>0.5506747177116358</v>
+        <v>0.4667129440981746</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>2.072968896601345e-07</v>
+        <v>3.574845479719512e-07</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="L125" t="n">
-        <v>0.999999999999806</v>
+        <v>0.9999999999992956</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>0.9999999998141786</v>
+        <v>0.9999999995156003</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>5.096404225816115e-07</v>
+        <v>7.890816944639386e-07</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>0.9957479347777595</v>
+        <v>0.9936394973897013</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>1.151075281617243e-05</v>
+        <v>1.516000225169106e-05</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="L131" t="n">
-        <v>0.9999998845799942</v>
+        <v>0.9999995016472071</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.01567066826273242</v>
+        <v>0.01740225214777788</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>0.7479609550095457</v>
+        <v>0.7094738310422859</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>1.747984375255613e-07</v>
+        <v>2.698520429227707e-07</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>3.407853094135812e-05</v>
+        <v>4.827568375383982e-05</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="L136" t="n">
-        <v>0.9999999998782128</v>
+        <v>0.9999999997039719</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>7.247351141359153e-07</v>
+        <v>9.603384163270902e-07</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="L138" t="n">
-        <v>0.9999999999999699</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0005751416789229946</v>
+        <v>0.0006182044134077437</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>6.367626164775075e-05</v>
+        <v>7.08595708044248e-05</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="L141" t="n">
-        <v>0.9999999990714868</v>
+        <v>0.9999999978179727</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>0.9932786869385432</v>
+        <v>0.9917037626031735</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>0.9999999997067207</v>
+        <v>0.9999999993167659</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="L147" t="n">
-        <v>0.99999999999957</v>
+        <v>0.9999999999984694</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>0.01179743200947915</v>
+        <v>0.01288581786949407</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>0.9999999997067207</v>
+        <v>0.9999999993167659</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0002047591890315847</v>
+        <v>0.0002469554217121196</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>1.86842867893421e-07</v>
+        <v>3.023063080041384e-07</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>3.326951209651737e-06</v>
+        <v>4.860886602216577e-06</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="L153" t="n">
-        <v>0.9999993696845424</v>
+        <v>0.99999815866967</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>1.185677537431025e-06</v>
+        <v>1.915697549272286e-06</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>8.350812156460185e-05</v>
+        <v>0.0001023449617394511</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>0.9999999999999699</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="L157" t="n">
-        <v>0.9999999999925248</v>
+        <v>0.9999999999814922</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>1.557531251904821e-06</v>
+        <v>2.473905525892622e-06</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="L160" t="n">
-        <v>0.9999999998790016</v>
+        <v>0.9999999996435975</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="L161" t="n">
-        <v>0.99999999985296</v>
+        <v>0.9999999996412027</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="L162" t="n">
-        <v>0.9999999999803212</v>
+        <v>0.9999999999522449</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>0.4371181139712138</v>
+        <v>0.4392297863402209</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>0.005502164781262835</v>
+        <v>0.005223178155882719</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0.5705007343109344</v>
+        <v>0.5356450971540714</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>4.035120509144819e-05</v>
+        <v>4.908703642517254e-05</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="L167" t="n">
-        <v>0.999997914157027</v>
+        <v>0.9999968671612838</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>1.030616486610376e-06</v>
+        <v>1.676960817517016e-06</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0007736685754488675</v>
+        <v>0.0009440502108455242</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="L170" t="n">
-        <v>0.9329232112046812</v>
+        <v>0.914710871367623</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="L171" t="n">
-        <v>0.9999999999997716</v>
+        <v>0.9999999999993454</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0001069223516532053</v>
+        <v>0.0001456732356450237</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>6.337143884388952e-05</v>
+        <v>8.033044244396911e-05</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>1</v>
       </c>
       <c r="L174" t="n">
-        <v>0.9999999999999699</v>
+        <v>0.999999999999965</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>5.940608764413998e-05</v>
+        <v>6.004648699342437e-05</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="L176" t="n">
-        <v>0.9999999999999293</v>
+        <v>0.9999999999998098</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2968406132108796</v>
+        <v>0.255386676160276</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="L178" t="n">
-        <v>0.9999996151353984</v>
+        <v>0.999999343905167</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.01562606752201956</v>
+        <v>0.01740701799276425</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>7.704100444297926e-07</v>
+        <v>1.215206325574599e-06</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="L182" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="L183" t="n">
-        <v>0.9999999999762725</v>
+        <v>0.9999999999394745</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
       <c r="L184" t="n">
-        <v>0.9999962291771576</v>
+        <v>0.9999931057328311</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="L185" t="n">
-        <v>0.9999906118761183</v>
+        <v>0.9972709567108324</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0004649933535466427</v>
+        <v>0.0005911983149808264</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="L187" t="n">
-        <v>0.9999999999801746</v>
+        <v>0.9999999999470395</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="L188" t="n">
-        <v>0.999999999999947</v>
+        <v>0.9999999999998143</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>1.840977450786016e-07</v>
+        <v>2.747421843242962e-07</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="L191" t="n">
-        <v>0.9999999985993215</v>
+        <v>0.999999997000813</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>0.01563508938413196</v>
+        <v>0.01742210844715141</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>0.9999999891197529</v>
+        <v>0.9999999747156458</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="L196" t="n">
-        <v>0.99999999332316</v>
+        <v>0.9999999861321366</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="L197" t="n">
-        <v>0.9999999999968248</v>
+        <v>0.9999999999911103</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="L199" t="n">
-        <v>0.98663237711104</v>
+        <v>0.9798565174410583</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="L200" t="n">
-        <v>0.9999999999995056</v>
+        <v>0.9999999999985936</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>2.442036230634227e-05</v>
+        <v>3.419953454612167e-05</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="L202" t="n">
-        <v>0.8828588048826186</v>
+        <v>0.8742670751871529</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="L204" t="n">
-        <v>0.9999999999999699</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>3.057987085736028e-05</v>
+        <v>4.723948699843747e-05</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>1</v>
       </c>
       <c r="L206" t="n">
-        <v>0.9999999999999699</v>
+        <v>0.999999999999953</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="L208" t="n">
-        <v>6.303074753488077e-05</v>
+        <v>8.374310589597083e-05</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="L209" t="n">
-        <v>0.002570022907964897</v>
+        <v>0.003097290467664235</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>1</v>
       </c>
       <c r="L210" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="L211" t="n">
-        <v>0.9907791677991374</v>
+        <v>0.9883643495837081</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="L213" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>1</v>
       </c>
       <c r="L214" t="n">
-        <v>0.9999999999850433</v>
+        <v>0.999999999956088</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>2.992810532944277e-05</v>
+        <v>3.33478425217998e-05</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="L217" t="n">
-        <v>0.9999996970000812</v>
+        <v>0.9999994178680447</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="L218" t="n">
-        <v>0.9999999999999699</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="L220" t="n">
-        <v>9.615440869266343e-05</v>
+        <v>0.0001126674335845026</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="L221" t="n">
-        <v>0.999996689937703</v>
+        <v>0.9999939187487549</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1049613264333083</v>
+        <v>0.1051991274436002</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>6.113388324609535e-06</v>
+        <v>8.392493598704123e-06</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="L224" t="n">
-        <v>0.9957479347777595</v>
+        <v>0.9936394973897013</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="L225" t="n">
-        <v>0.9999999999796513</v>
+        <v>0.999999999938517</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>1</v>
       </c>
       <c r="L226" t="n">
-        <v>0.9999999999999699</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>0.008967407690249266</v>
+        <v>0.009058670023334239</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>1</v>
       </c>
       <c r="L229" t="n">
-        <v>0.999999999999964</v>
+        <v>0.9999999999998762</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="L230" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="L231" t="n">
-        <v>0.9999999997067207</v>
+        <v>0.9999999993167659</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0.00896203301337092</v>
+        <v>0.008730882292652956</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>5.725288418767752e-05</v>
+        <v>8.000216030727533e-05</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>2.570190255684211e-06</v>
+        <v>4.043291053184629e-06</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="L235" t="n">
-        <v>0.9999999999872685</v>
+        <v>0.9999999999675144</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0005459731744907747</v>
+        <v>0.0006318244754265839</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>1</v>
       </c>
       <c r="L238" t="n">
-        <v>0.9999999997067207</v>
+        <v>0.9999999993167659</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="L239" t="n">
-        <v>0.9919250150550635</v>
+        <v>0.9901030849807413</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="L240" t="n">
-        <v>1.746513015037525e-06</v>
+        <v>2.658854437891562e-06</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="L242" t="n">
-        <v>0.001217913623487346</v>
+        <v>0.001408933533328669</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="L245" t="n">
-        <v>0.00121605095362182</v>
+        <v>0.001471768789185969</v>
       </c>
       <c r="M245" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="L246" t="n">
-        <v>1.344354396455269e-07</v>
+        <v>2.039608777092847e-07</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>1</v>
       </c>
       <c r="L247" t="n">
-        <v>0.9999999997067207</v>
+        <v>0.9999999993167659</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="L249" t="n">
-        <v>0.005502164781262835</v>
+        <v>0.005223178155882719</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="L250" t="n">
-        <v>0.002478846585475161</v>
+        <v>0.002512820581214887</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="L251" t="n">
-        <v>6.121874083385785e-06</v>
+        <v>8.882286792775457e-06</v>
       </c>
       <c r="M251" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="L252" t="n">
-        <v>6.553657376357101e-07</v>
+        <v>9.073231188598256e-07</v>
       </c>
       <c r="M252" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="L253" t="n">
-        <v>0.9999999999231824</v>
+        <v>0.9999999997529518</v>
       </c>
       <c r="M253" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="L254" t="n">
-        <v>0.9999999999798294</v>
+        <v>0.9999999999464949</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="L255" t="n">
-        <v>0.9999999999827784</v>
+        <v>0.999999999956063</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="n">
-        <v>7.073749822689584e-05</v>
+        <v>9.682133425804369e-05</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="n">
-        <v>1.000000099473604e-07</v>
+        <v>1.242536797964975e-07</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>1</v>
       </c>
       <c r="L262" t="n">
-        <v>0.9999999987747981</v>
+        <v>0.999999997242658</v>
       </c>
       <c r="M262" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="L263" t="n">
-        <v>0.9999999999790435</v>
+        <v>0.9999999999452789</v>
       </c>
       <c r="M263" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="n">
-        <v>5.963194352123217e-05</v>
+        <v>7.58658282919595e-05</v>
       </c>
       <c r="M264" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="L265" t="n">
-        <v>0.9999999999798294</v>
+        <v>0.9999999999464949</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="L266" t="n">
-        <v>0.697046236956807</v>
+        <v>0.6813251394520501</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="n">
-        <v>0.002179839566765986</v>
+        <v>0.002311900567696534</v>
       </c>
       <c r="M267" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="n">
-        <v>1.631836912099035e-07</v>
+        <v>2.649122994425841e-07</v>
       </c>
       <c r="M268" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="n">
-        <v>0.1919188497874307</v>
+        <v>0.1793594734975911</v>
       </c>
       <c r="M269" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="L270" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M270" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="n">
-        <v>6.811112713318383e-07</v>
+        <v>1.028740144661449e-06</v>
       </c>
       <c r="M271" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>1</v>
       </c>
       <c r="L272" t="n">
-        <v>0.9999998845799942</v>
+        <v>0.9999995016472071</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="n">
-        <v>6.121874083385785e-06</v>
+        <v>8.882286792775457e-06</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="L275" t="n">
-        <v>0.9999999999996162</v>
+        <v>0.9999999999987567</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="n">
-        <v>0.05256309304234175</v>
+        <v>0.05204559930918044</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="L277" t="n">
-        <v>0.9999999999457924</v>
+        <v>0.9999999997417121</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="n">
-        <v>0.0005791029269934254</v>
+        <v>0.0006975395129900211</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="L279" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="L280" t="n">
-        <v>0.95033830843344</v>
+        <v>0.9428136084474624</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="L281" t="n">
-        <v>0.9999999999998321</v>
+        <v>0.9999999999995329</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="L282" t="n">
-        <v>0.9999999997067207</v>
+        <v>0.9999999993167659</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="n">
-        <v>0.1600047294480469</v>
+        <v>0.1426654026881033</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="L285" t="n">
-        <v>0.9999999990714868</v>
+        <v>0.9999999978179727</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="L286" t="n">
-        <v>0.9999986439365687</v>
+        <v>0.9999980483019685</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="L287" t="n">
-        <v>0.9999999999605607</v>
+        <v>0.9999999998453449</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="n">
-        <v>0.361655352860065</v>
+        <v>0.3437261705744764</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="L290" t="n">
-        <v>0.9999999999919097</v>
+        <v>0.999999999980255</v>
       </c>
       <c r="M290" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="n">
-        <v>7.018500265264249e-07</v>
+        <v>1.124275512463177e-06</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="n">
-        <v>1.77323498272121e-05</v>
+        <v>2.379320421550927e-05</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="n">
-        <v>1.000000099473604e-07</v>
+        <v>1.4567323060475e-07</v>
       </c>
       <c r="M293" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="n">
-        <v>0.0021096685742394</v>
+        <v>0.002524120195027526</v>
       </c>
       <c r="M294" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="L295" t="n">
-        <v>0.9999999997067207</v>
+        <v>0.9999999993167659</v>
       </c>
       <c r="M295" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="n">
-        <v>0.003972865920650485</v>
+        <v>0.004594815466157617</v>
       </c>
       <c r="M296" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="L297" t="n">
-        <v>0.9999999999812403</v>
+        <v>0.9999999999502882</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>1</v>
       </c>
       <c r="L298" t="n">
-        <v>0.9999999999762725</v>
+        <v>0.9999999999394745</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="n">
-        <v>0.001732619010356445</v>
+        <v>0.002190690295774527</v>
       </c>
       <c r="M299" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="n">
-        <v>0.0003393715827310396</v>
+        <v>0.0004640233895024424</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="n">
-        <v>4.035120509144819e-05</v>
+        <v>4.908703642517254e-05</v>
       </c>
       <c r="M301" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="n">
-        <v>2.933573599756056e-07</v>
+        <v>4.2714904795639e-07</v>
       </c>
       <c r="M302" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>1</v>
       </c>
       <c r="L303" t="n">
-        <v>0.9999999999187591</v>
+        <v>0.9999999997925599</v>
       </c>
       <c r="M303" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="L304" t="n">
-        <v>0.9999999999994521</v>
+        <v>0.9999999999984566</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="n">
-        <v>0.0008324313857146506</v>
+        <v>0.0009771855529230517</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>1</v>
       </c>
       <c r="L306" t="n">
-        <v>0.9298586259745285</v>
+        <v>0.9167763912445068</v>
       </c>
       <c r="M306" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="L307" t="n">
-        <v>0.9714431656197545</v>
+        <v>0.9682290367281349</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="n">
-        <v>0.5116918315964267</v>
+        <v>0.4833091233873266</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="n">
-        <v>0.0001193917696346418</v>
+        <v>0.0001684008566463618</v>
       </c>
       <c r="M310" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="n">
-        <v>7.647655682549374e-05</v>
+        <v>0.0001092585790903919</v>
       </c>
       <c r="M311" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="n">
-        <v>6.922789444276698e-06</v>
+        <v>1.021445188051766e-05</v>
       </c>
       <c r="M312" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="L313" t="n">
-        <v>0.9999999999999458</v>
+        <v>0.9999999999998307</v>
       </c>
       <c r="M313" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="n">
-        <v>6.121874083385785e-06</v>
+        <v>8.882286792775457e-06</v>
       </c>
       <c r="M314" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="n">
-        <v>0.1923045378978138</v>
+        <v>0.1839270127960788</v>
       </c>
       <c r="M316" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="L317" t="n">
-        <v>0.9999999999999699</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="M317" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="n">
-        <v>0.09208416358500238</v>
+        <v>0.08496813696193878</v>
       </c>
       <c r="M319" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="n">
-        <v>0.2427953061128994</v>
+        <v>0.2340062592201655</v>
       </c>
       <c r="M320" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="n">
-        <v>1.26941745555351e-05</v>
+        <v>1.83915948510444e-05</v>
       </c>
       <c r="M321" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="n">
-        <v>0.0007393027143613598</v>
+        <v>0.0009331689090006777</v>
       </c>
       <c r="M322" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>1</v>
       </c>
       <c r="L325" t="n">
-        <v>0.9999999999999117</v>
+        <v>0.999999999999745</v>
       </c>
       <c r="M325" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="L326" t="n">
-        <v>6.113388324609535e-06</v>
+        <v>8.392493598704123e-06</v>
       </c>
       <c r="M326" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="L327" t="n">
-        <v>0.8470876896225796</v>
+        <v>0.8592360495110504</v>
       </c>
       <c r="M327" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="L328" t="n">
-        <v>0.9999999967318803</v>
+        <v>0.9999999888438084</v>
       </c>
       <c r="M328" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>0</v>
       </c>
       <c r="L329" t="n">
-        <v>2.853115795484352e-06</v>
+        <v>4.379425553297122e-06</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="n">
-        <v>1.000000099473604e-07</v>
+        <v>1.447746069458313e-07</v>
       </c>
       <c r="M332" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="L333" t="n">
-        <v>0.9919250150550635</v>
+        <v>0.9901030849807413</v>
       </c>
       <c r="M333" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="L334" t="n">
-        <v>0.999999999999914</v>
+        <v>0.9999999999997303</v>
       </c>
       <c r="M334" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="L336" t="n">
-        <v>0.999999999999252</v>
+        <v>0.999999999997835</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>1</v>
       </c>
       <c r="L337" t="n">
-        <v>0.9999999999990821</v>
+        <v>0.9999999999974529</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="L339" t="n">
-        <v>0.9999999999997108</v>
+        <v>0.9999999999986805</v>
       </c>
       <c r="M339" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="L341" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M341" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>1</v>
       </c>
       <c r="L342" t="n">
-        <v>0.9999999999985033</v>
+        <v>0.9999999999946365</v>
       </c>
       <c r="M342" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>0</v>
       </c>
       <c r="L343" t="n">
-        <v>6.543717623196637e-07</v>
+        <v>9.565627767273118e-07</v>
       </c>
       <c r="M343" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>1</v>
       </c>
       <c r="L344" t="n">
-        <v>0.9999999453313184</v>
+        <v>0.9999998694353308</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>1</v>
       </c>
       <c r="L346" t="n">
-        <v>0.8488201135978162</v>
+        <v>0.8323493972037063</v>
       </c>
       <c r="M346" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="L347" t="n">
-        <v>0.0001148875670982237</v>
+        <v>0.0001538668301180471</v>
       </c>
       <c r="M347" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="L348" t="n">
-        <v>0.002343388951362673</v>
+        <v>0.002757773176047425</v>
       </c>
       <c r="M348" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="L349" t="n">
-        <v>0.9999999959244059</v>
+        <v>0.9999999898741365</v>
       </c>
       <c r="M349" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>1</v>
       </c>
       <c r="L350" t="n">
-        <v>0.999999999984011</v>
+        <v>0.9999999999598018</v>
       </c>
       <c r="M350" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="L352" t="n">
-        <v>2.674754009708407e-05</v>
+        <v>3.434196582403211e-05</v>
       </c>
       <c r="M352" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="L353" t="n">
-        <v>0.01071870126984813</v>
+        <v>0.01177729930614723</v>
       </c>
       <c r="M353" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="L354" t="n">
-        <v>6.106321951820388e-06</v>
+        <v>9.024075655064509e-06</v>
       </c>
       <c r="M354" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="L355" t="n">
-        <v>1.404349806574155e-05</v>
+        <v>1.926950803210349e-05</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>1</v>
       </c>
       <c r="L358" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.999999999999851</v>
       </c>
       <c r="M358" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>0</v>
       </c>
       <c r="L360" t="n">
-        <v>4.730266727640812e-07</v>
+        <v>7.999024258713303e-07</v>
       </c>
       <c r="M360" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="L362" t="n">
-        <v>0.01532395812653361</v>
+        <v>0.01772999881529927</v>
       </c>
       <c r="M362" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="L363" t="n">
-        <v>9.075046189708817e-06</v>
+        <v>1.42229654874312e-05</v>
       </c>
       <c r="M363" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="L365" t="n">
-        <v>7.018500265264249e-07</v>
+        <v>1.124275512463177e-06</v>
       </c>
       <c r="M365" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="L366" t="n">
-        <v>2.570190255684211e-06</v>
+        <v>4.043291053184629e-06</v>
       </c>
       <c r="M366" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="L367" t="n">
-        <v>0.9999999999951501</v>
+        <v>0.9999999999878774</v>
       </c>
       <c r="M367" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="L368" t="n">
-        <v>4.810380587545642e-05</v>
+        <v>6.296547259756105e-05</v>
       </c>
       <c r="M368" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="L369" t="n">
-        <v>3.058430235215979e-07</v>
+        <v>4.878816774982623e-07</v>
       </c>
       <c r="M369" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>0</v>
       </c>
       <c r="L372" t="n">
-        <v>5.963194352123217e-05</v>
+        <v>7.58658282919595e-05</v>
       </c>
       <c r="M372" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="L373" t="n">
-        <v>7.018500265264249e-07</v>
+        <v>1.124275512463177e-06</v>
       </c>
       <c r="M373" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="L374" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M374" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="L376" t="n">
-        <v>1.434973380343382e-06</v>
+        <v>2.213648518917226e-06</v>
       </c>
       <c r="M376" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="L377" t="n">
-        <v>0.0006539528939694824</v>
+        <v>0.0007219527317382957</v>
       </c>
       <c r="M377" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="L378" t="n">
-        <v>5.407373173632591e-05</v>
+        <v>7.998088666384605e-05</v>
       </c>
       <c r="M378" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="L380" t="n">
-        <v>0.9999999999966612</v>
+        <v>0.9999999999908966</v>
       </c>
       <c r="M380" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="L381" t="n">
-        <v>0.9999938669987539</v>
+        <v>0.9999867222815926</v>
       </c>
       <c r="M381" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>1</v>
       </c>
       <c r="L382" t="n">
-        <v>0.9999999999997683</v>
+        <v>0.9999999999992022</v>
       </c>
       <c r="M382" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>1</v>
       </c>
       <c r="L383" t="n">
-        <v>0.9999999987278042</v>
+        <v>0.999999994584937</v>
       </c>
       <c r="M383" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>0</v>
       </c>
       <c r="L384" t="n">
-        <v>0.008011713424994514</v>
+        <v>0.007854446944914587</v>
       </c>
       <c r="M384" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="L386" t="n">
-        <v>1.665808642136548e-06</v>
+        <v>2.5538838300764e-06</v>
       </c>
       <c r="M386" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="L387" t="n">
-        <v>0.9999999999999699</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="M387" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="L388" t="n">
-        <v>0.0004696553101274921</v>
+        <v>0.0005191452534375414</v>
       </c>
       <c r="M388" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>0</v>
       </c>
       <c r="L389" t="n">
-        <v>7.704100444297926e-07</v>
+        <v>1.215206325574599e-06</v>
       </c>
       <c r="M389" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="L390" t="n">
-        <v>0.9999999999991694</v>
+        <v>0.9999999999977845</v>
       </c>
       <c r="M390" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>0</v>
       </c>
       <c r="L392" t="n">
-        <v>2.358268576774846e-06</v>
+        <v>3.278159685309317e-06</v>
       </c>
       <c r="M392" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>1</v>
       </c>
       <c r="L394" t="n">
-        <v>0.9999999999999224</v>
+        <v>0.9999999999997777</v>
       </c>
       <c r="M394" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="L395" t="n">
-        <v>0.01532591954641578</v>
+        <v>0.01447895559529341</v>
       </c>
       <c r="M395" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>1</v>
       </c>
       <c r="L396" t="n">
-        <v>0.999999998432768</v>
+        <v>0.9999999961924881</v>
       </c>
       <c r="M396" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>1</v>
       </c>
       <c r="L398" t="n">
-        <v>0.9999999983451561</v>
+        <v>0.9999999962991164</v>
       </c>
       <c r="M398" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="n">
-        <v>7.30871396659048e-05</v>
+        <v>0.000101275730617405</v>
       </c>
       <c r="M399" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>1</v>
       </c>
       <c r="L401" t="n">
-        <v>0.9999999999968611</v>
+        <v>0.9999999999917203</v>
       </c>
       <c r="M401" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>1</v>
       </c>
       <c r="L402" t="n">
-        <v>0.9999999997067207</v>
+        <v>0.9999999993167659</v>
       </c>
       <c r="M402" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>1</v>
       </c>
       <c r="L404" t="n">
-        <v>0.9999997942004575</v>
+        <v>0.9999994339123349</v>
       </c>
       <c r="M404" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="L405" t="n">
-        <v>0.9868909398122602</v>
+        <v>0.9837255122615781</v>
       </c>
       <c r="M405" t="inlineStr">
         <is>
@@ -17993,7 +17993,7 @@
         <v>1</v>
       </c>
       <c r="L408" t="n">
-        <v>0.9999999999999591</v>
+        <v>0.9999999999998516</v>
       </c>
       <c r="M408" t="inlineStr">
         <is>
